--- a/test-code-generator/Evaluation/QuantitativeEvaluation/1/UC2.2_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/1/UC2.2_TC1.xlsx
@@ -620,11 +620,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2736099442542581</v>
+        <v>0.2986099442542581</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.27360994425425805, 'ngram_match_score': 0.08727842956031195, 'weighted_ngram_match_score': 0.13283702313239595, 'syntax_match_score': 0.5743243243243243, 'dataflow_match_score': 0.3}</t>
+          <t>{'codebleu': 0.2986099442542581, 'ngram_match_score': 0.08727842956031195, 'weighted_ngram_match_score': 0.13283702313239595, 'syntax_match_score': 0.5743243243243243, 'dataflow_match_score': 0.4}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">

--- a/test-code-generator/Evaluation/QuantitativeEvaluation/1/UC2.2_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/1/UC2.2_TC1.xlsx
@@ -620,11 +620,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2986099442542581</v>
+        <v>0.2861099442542581</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.2986099442542581, 'ngram_match_score': 0.08727842956031195, 'weighted_ngram_match_score': 0.13283702313239595, 'syntax_match_score': 0.5743243243243243, 'dataflow_match_score': 0.4}</t>
+          <t>{'codebleu': 0.28610994425425806, 'ngram_match_score': 0.08727842956031195, 'weighted_ngram_match_score': 0.13283702313239595, 'syntax_match_score': 0.5743243243243243, 'dataflow_match_score': 0.35}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
